--- a/Manuscript/charts/Final Charts - Links.xlsx
+++ b/Manuscript/charts/Final Charts - Links.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammad\git\RoadNetworks\Manuscript\charts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="19095" windowHeight="7935" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="19095" windowHeight="7935" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Historic" sheetId="1" r:id="rId1"/>
     <sheet name="Filtered" sheetId="2" r:id="rId2"/>
     <sheet name="Interpolate" sheetId="3" r:id="rId3"/>
     <sheet name="Best of All" sheetId="5" r:id="rId4"/>
-    <sheet name="All Approaches" sheetId="7" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="13" r:id="rId6"/>
-    <sheet name="Historic (r)" sheetId="8" r:id="rId7"/>
-    <sheet name="Filtered (r)" sheetId="9" r:id="rId8"/>
-    <sheet name="Inerplolate (r)" sheetId="11" r:id="rId9"/>
-    <sheet name="Best of All (r)" sheetId="12" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId5"/>
+    <sheet name="All Approaches" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="13" r:id="rId7"/>
+    <sheet name="Historic (r)" sheetId="8" r:id="rId8"/>
+    <sheet name="Filtered (r)" sheetId="9" r:id="rId9"/>
+    <sheet name="Inerplolate (r)" sheetId="11" r:id="rId10"/>
+    <sheet name="Best of All (r)" sheetId="12" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -103,8 +109,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,12 +148,30 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -166,11 +190,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -247,6 +274,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -324,16 +352,26 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="127994880"/>
-        <c:axId val="128091264"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="193773360"/>
+        <c:axId val="193791784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="127994880"/>
+        <c:axId val="193773360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -352,25 +390,32 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128091264"/>
+        <c:crossAx val="193791784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128091264"/>
+        <c:axId val="193791784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127994880"/>
+        <c:crossAx val="193773360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -387,8 +432,11 @@
           <c:h val="0.16743438320210019"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -400,7 +448,17 @@
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -419,11 +477,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -525,6 +586,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -627,6 +689,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -729,16 +792,26 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="128870272"/>
-        <c:axId val="128880640"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="194977536"/>
+        <c:axId val="194977928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128870272"/>
+        <c:axId val="194977536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -762,26 +835,32 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128880640"/>
+        <c:crossAx val="194977928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128880640"/>
+        <c:axId val="194977928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128870272"/>
+        <c:crossAx val="194977536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -789,8 +868,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -802,7 +884,17 @@
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -821,11 +913,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -902,6 +997,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -979,16 +1075,26 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="128951040"/>
-        <c:axId val="128952960"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="194978712"/>
+        <c:axId val="194979104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128951040"/>
+        <c:axId val="194978712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1007,26 +1113,33 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128952960"/>
+        <c:crossAx val="194979104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128952960"/>
+        <c:axId val="194979104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.5"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128951040"/>
+        <c:crossAx val="194978712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1034,8 +1147,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1047,13 +1163,25 @@
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1068,6 +1196,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Historic (r)'!$B$20:$G$20</c:f>
@@ -1136,6 +1265,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Historic (r)'!$B$20:$G$20</c:f>
@@ -1190,32 +1320,49 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="128723968"/>
-        <c:axId val="128729856"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="194979888"/>
+        <c:axId val="194980280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="128723968"/>
+        <c:axId val="194979888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128729856"/>
+        <c:crossAx val="194980280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128729856"/>
+        <c:axId val="194980280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128723968"/>
+        <c:crossAx val="194979888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1223,8 +1370,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1236,7 +1386,17 @@
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1254,6 +1414,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1275,6 +1436,7 @@
               </a:schemeClr>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Historic (r)'!$B$20:$G$20</c:f>
@@ -1344,13 +1506,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="85000"/>
-                <a:lumOff val="15000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:pattFill prst="pct25">
+              <a:fgClr>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Historic (r)'!$B$20:$G$20</c:f>
@@ -1405,15 +1573,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="128752256"/>
-        <c:axId val="128774912"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="194981064"/>
+        <c:axId val="195194856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="128752256"/>
+        <c:axId val="194981064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1432,8 +1609,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1445,17 +1625,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128774912"/>
+        <c:crossAx val="195194856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128774912"/>
+        <c:axId val="195194856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1475,8 +1657,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1488,7 +1673,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128752256"/>
+        <c:crossAx val="194981064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1505,6 +1690,7 @@
           <c:h val="8.8637496262334303E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1517,6 +1703,8 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1528,7 +1716,17 @@
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1547,11 +1745,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1617,6 +1818,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1683,6 +1885,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1749,6 +1952,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1815,6 +2019,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1881,6 +2086,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -1947,6 +2153,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -2013,16 +2220,26 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="129118592"/>
-        <c:axId val="129120512"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="195195640"/>
+        <c:axId val="195196032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="129118592"/>
+        <c:axId val="195195640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2046,9 +2263,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2060,20 +2279,24 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="129120512"/>
+        <c:crossAx val="195196032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129120512"/>
+        <c:axId val="195196032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2085,7 +2308,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="129118592"/>
+        <c:crossAx val="195195640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2102,6 +2325,7 @@
           <c:h val="0.68761482939632557"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2114,6 +2338,8 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2125,8 +2351,17 @@
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:style val="1"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -2143,6 +2378,7 @@
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2205,6 +2441,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2268,6 +2505,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2331,6 +2569,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2394,6 +2633,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -2457,6 +2697,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -2520,6 +2761,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -2583,17 +2825,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="129209856"/>
-        <c:axId val="129211776"/>
+        <c:smooth val="0"/>
+        <c:axId val="194674688"/>
+        <c:axId val="194675080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="129209856"/>
+        <c:axId val="194674688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2612,9 +2864,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2626,17 +2880,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="129211776"/>
+        <c:crossAx val="194675080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129211776"/>
+        <c:axId val="194675080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2656,8 +2912,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2669,7 +2928,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="129209856"/>
+        <c:crossAx val="194674688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2686,6 +2945,7 @@
           <c:h val="0.23416848935549722"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -2708,6 +2968,8 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2719,7 +2981,17 @@
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2738,11 +3010,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2802,6 +3077,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2862,6 +3138,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2922,6 +3199,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2982,6 +3260,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -3042,6 +3321,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -3102,6 +3382,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -3162,16 +3443,26 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="129309696"/>
-        <c:axId val="129328256"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="194675864"/>
+        <c:axId val="194676256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="129309696"/>
+        <c:axId val="194675864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -3190,9 +3481,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -3204,20 +3497,24 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="129328256"/>
+        <c:crossAx val="194676256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129328256"/>
+        <c:axId val="194676256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -3229,7 +3526,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="129309696"/>
+        <c:crossAx val="194675864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3246,6 +3543,7 @@
           <c:h val="0.66446668124817743"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3258,6 +3556,8 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3269,8 +3569,17 @@
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:style val="1"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -3287,6 +3596,7 @@
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3343,6 +3653,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3400,6 +3711,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3457,6 +3769,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3514,6 +3827,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -3571,6 +3885,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -3628,6 +3943,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -3685,17 +4001,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="129470848"/>
-        <c:axId val="129472768"/>
+        <c:smooth val="0"/>
+        <c:axId val="194677040"/>
+        <c:axId val="194677432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="129470848"/>
+        <c:axId val="194677040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -3714,9 +4040,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -3728,17 +4056,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="129472768"/>
+        <c:crossAx val="194677432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129472768"/>
+        <c:axId val="194677432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -3758,8 +4088,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -3771,7 +4104,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="129470848"/>
+        <c:crossAx val="194677040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3788,6 +4121,7 @@
           <c:h val="0.25731663750364536"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -3810,6 +4144,8 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3821,7 +4157,17 @@
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -3839,6 +4185,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3860,6 +4207,7 @@
               </a:schemeClr>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Inerplolate (r)'!$B$30:$F$30</c:f>
@@ -3908,15 +4256,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="129382656"/>
-        <c:axId val="129393024"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="194678216"/>
+        <c:axId val="195862536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="129382656"/>
+        <c:axId val="194678216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -3942,8 +4299,11 @@
               <c:y val="0.86122666958296878"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -3955,17 +4315,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="129393024"/>
+        <c:crossAx val="195862536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129393024"/>
+        <c:axId val="195862536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -3985,8 +4347,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -3998,12 +4363,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="129382656"/>
+        <c:crossAx val="194678216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -4015,8 +4382,17 @@
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:style val="1"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -4033,6 +4409,7 @@
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4107,6 +4484,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4182,6 +4560,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4257,17 +4636,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="129425792"/>
-        <c:axId val="129427712"/>
+        <c:smooth val="0"/>
+        <c:axId val="195863320"/>
+        <c:axId val="195863712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="129425792"/>
+        <c:axId val="195863320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -4291,9 +4680,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -4305,18 +4696,20 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="129427712"/>
+        <c:crossAx val="195863712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129427712"/>
+        <c:axId val="195863712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -4336,8 +4729,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -4349,7 +4745,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="129425792"/>
+        <c:crossAx val="195863320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4366,6 +4762,7 @@
           <c:h val="0.14467009332166814"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -4378,6 +4775,8 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -4389,7 +4788,17 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4412,11 +4821,15 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4518,6 +4931,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4620,6 +5034,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4722,6 +5137,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -4824,6 +5240,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -4926,6 +5343,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -5028,6 +5446,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -5130,16 +5549,26 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="128280448"/>
-        <c:axId val="128290816"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="193855672"/>
+        <c:axId val="155015584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128280448"/>
+        <c:axId val="193855672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -5157,34 +5586,45 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128290816"/>
+        <c:crossAx val="155015584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128290816"/>
+        <c:axId val="155015584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128280448"/>
+        <c:crossAx val="193855672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -5196,7 +5636,17 @@
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -5215,11 +5665,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5296,6 +5749,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5373,6 +5827,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5450,16 +5905,26 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="129518976"/>
-        <c:axId val="129549824"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="195864496"/>
+        <c:axId val="195864888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="129518976"/>
+        <c:axId val="195864496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -5483,25 +5948,32 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129549824"/>
+        <c:crossAx val="195864888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129549824"/>
+        <c:axId val="195864888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129518976"/>
+        <c:crossAx val="195864496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5509,8 +5981,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -5522,7 +5997,17 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -5540,11 +6025,15 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5646,6 +6135,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5748,6 +6238,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5850,6 +6341,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -5952,6 +6444,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -6054,6 +6547,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -6156,6 +6650,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -6258,16 +6753,26 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="128360832"/>
-        <c:axId val="128362752"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="194369624"/>
+        <c:axId val="194370008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128360832"/>
+        <c:axId val="194369624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -6285,34 +6790,45 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128362752"/>
+        <c:crossAx val="194370008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128362752"/>
+        <c:axId val="194370008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128360832"/>
+        <c:crossAx val="194369624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -6324,7 +6840,17 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -6342,11 +6868,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -6442,6 +6971,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -6538,6 +7068,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -6634,6 +7165,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -6730,6 +7262,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -6826,6 +7359,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -6922,6 +7456,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -7018,16 +7553,26 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="128441344"/>
-        <c:axId val="128132224"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="154802688"/>
+        <c:axId val="154803080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128441344"/>
+        <c:axId val="154802688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -7045,34 +7590,43 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128132224"/>
+        <c:crossAx val="154803080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128132224"/>
+        <c:axId val="154803080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128441344"/>
+        <c:crossAx val="154802688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -7084,7 +7638,17 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -7102,11 +7666,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -7202,6 +7769,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -7298,6 +7866,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -7394,6 +7963,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -7490,6 +8060,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -7586,6 +8157,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -7682,6 +8254,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -7778,16 +8351,26 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="128456192"/>
-        <c:axId val="128458112"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="194236312"/>
+        <c:axId val="194236704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128456192"/>
+        <c:axId val="194236312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -7805,34 +8388,43 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128458112"/>
+        <c:crossAx val="194236704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128458112"/>
+        <c:axId val="194236704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128456192"/>
+        <c:crossAx val="194236312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -7844,7 +8436,17 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -7868,11 +8470,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -7949,6 +8554,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -8026,6 +8632,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -8103,16 +8710,26 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="128496768"/>
-        <c:axId val="128498688"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="194237488"/>
+        <c:axId val="194237880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128496768"/>
+        <c:axId val="194237488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -8131,25 +8748,32 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128498688"/>
+        <c:crossAx val="194237880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128498688"/>
+        <c:axId val="194237880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128496768"/>
+        <c:crossAx val="194237488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8157,8 +8781,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -8170,7 +8797,17 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -8194,11 +8831,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -8275,6 +8915,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -8352,6 +8993,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -8429,16 +9071,26 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="128577920"/>
-        <c:axId val="128579840"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="194238664"/>
+        <c:axId val="194239056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128577920"/>
+        <c:axId val="194238664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -8457,25 +9109,32 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128579840"/>
+        <c:crossAx val="194239056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128579840"/>
+        <c:axId val="194239056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128577920"/>
+        <c:crossAx val="194238664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8483,8 +9142,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -8496,13 +9158,25 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -8517,6 +9191,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'All Approaches'!$B$10:$G$10</c:f>
@@ -8579,6 +9254,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'All Approaches'!$B$10:$G$10</c:f>
@@ -8641,6 +9317,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'All Approaches'!$B$10:$G$10</c:f>
@@ -8689,32 +9366,49 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="128638976"/>
-        <c:axId val="128640512"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="154803864"/>
+        <c:axId val="154802296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="128638976"/>
+        <c:axId val="154803864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128640512"/>
+        <c:crossAx val="154802296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128640512"/>
+        <c:axId val="154802296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128638976"/>
+        <c:crossAx val="154803864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8722,8 +9416,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -8735,7 +9432,17 @@
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -8754,11 +9461,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -8860,6 +9570,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -8962,6 +9673,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -9064,16 +9776,26 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="128690816"/>
-        <c:axId val="128705280"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="154801512"/>
+        <c:axId val="154801120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128690816"/>
+        <c:axId val="154801512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -9092,26 +9814,32 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128705280"/>
+        <c:crossAx val="154801120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128705280"/>
+        <c:axId val="154801120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128690816"/>
+        <c:crossAx val="154801512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9119,8 +9847,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -9823,7 +10554,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9855,9 +10586,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9889,6 +10621,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -10064,16 +10797,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>2</v>
       </c>
@@ -10096,7 +10829,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -10122,7 +10855,7 @@
         <v>28.144529983775545</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -10155,19 +10888,359 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A10:F32"/>
+  <sheetViews>
+    <sheetView topLeftCell="J16" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.3</v>
+      </c>
+      <c r="D10">
+        <v>0.6</v>
+      </c>
+      <c r="E10">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>17.657288347730439</v>
+      </c>
+      <c r="C11">
+        <v>13.120157652008995</v>
+      </c>
+      <c r="D11">
+        <v>9.6225142237086079</v>
+      </c>
+      <c r="E11">
+        <v>9.0035885661840442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>17.662346308820773</v>
+      </c>
+      <c r="C12">
+        <v>13.43953426451384</v>
+      </c>
+      <c r="D12">
+        <v>10.583822930085152</v>
+      </c>
+      <c r="E12">
+        <v>10.909961417435829</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>17.657197809355157</v>
+      </c>
+      <c r="C13">
+        <v>13.795970394433667</v>
+      </c>
+      <c r="D13">
+        <v>11.536428464393081</v>
+      </c>
+      <c r="E13">
+        <v>12.542008994331432</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>17.646972099605591</v>
+      </c>
+      <c r="C14">
+        <v>14.562857057368639</v>
+      </c>
+      <c r="D14">
+        <v>13.498049536000737</v>
+      </c>
+      <c r="E14">
+        <v>15.829922055413904</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>17.63325156733287</v>
+      </c>
+      <c r="C15">
+        <v>15.704953191452235</v>
+      </c>
+      <c r="D15">
+        <v>16.305451283891149</v>
+      </c>
+      <c r="E15">
+        <v>20.430863739445549</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>17.657725977641714</v>
+      </c>
+      <c r="C16">
+        <v>16.495377425115223</v>
+      </c>
+      <c r="D16">
+        <v>18.136823349836796</v>
+      </c>
+      <c r="E16">
+        <v>23.428961738889964</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>17.682609312769152</v>
+      </c>
+      <c r="C17">
+        <v>17.08256012675534</v>
+      </c>
+      <c r="D17">
+        <v>19.559058155252426</v>
+      </c>
+      <c r="E17">
+        <v>25.907760979359228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.3</v>
+      </c>
+      <c r="D19">
+        <v>0.6</v>
+      </c>
+      <c r="E19">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>16.223764514665973</v>
+      </c>
+      <c r="C20">
+        <v>12.177255976698223</v>
+      </c>
+      <c r="D20">
+        <v>9.2802417533177106</v>
+      </c>
+      <c r="E20">
+        <v>9.1578273226650744</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>16.22898416581371</v>
+      </c>
+      <c r="C21">
+        <v>12.526612109151291</v>
+      </c>
+      <c r="D21">
+        <v>10.314772706657715</v>
+      </c>
+      <c r="E21">
+        <v>11.085133334750166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>16.225704091422507</v>
+      </c>
+      <c r="C22">
+        <v>12.90713092994811</v>
+      </c>
+      <c r="D22">
+        <v>11.327154801269373</v>
+      </c>
+      <c r="E22">
+        <v>12.735565116591353</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>16.218016520622719</v>
+      </c>
+      <c r="C23">
+        <v>13.756607330828263</v>
+      </c>
+      <c r="D23">
+        <v>13.427875082965713</v>
+      </c>
+      <c r="E23">
+        <v>16.0654013380679</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>16.197964810604216</v>
+      </c>
+      <c r="C24">
+        <v>15.043378098682306</v>
+      </c>
+      <c r="D24">
+        <v>16.41825580960089</v>
+      </c>
+      <c r="E24">
+        <v>20.722547850142412</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>16.231236398233925</v>
+      </c>
+      <c r="C25">
+        <v>15.951885295201178</v>
+      </c>
+      <c r="D25">
+        <v>18.367801657114683</v>
+      </c>
+      <c r="E25">
+        <v>23.753788113603839</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>16.258342155928119</v>
+      </c>
+      <c r="C26">
+        <v>16.633018608070596</v>
+      </c>
+      <c r="D26">
+        <v>19.89852875244528</v>
+      </c>
+      <c r="E26">
+        <v>26.267675943355712</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>15.777241507141854</v>
+      </c>
+      <c r="C31">
+        <v>14.522147381973834</v>
+      </c>
+      <c r="D31">
+        <v>13.934678865087319</v>
+      </c>
+      <c r="E31">
+        <v>13.820892709075265</v>
+      </c>
+      <c r="F31">
+        <v>13.829318039955798</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>14.607284822815769</v>
+      </c>
+      <c r="C32">
+        <v>13.640594366429525</v>
+      </c>
+      <c r="D32">
+        <v>13.333735469496563</v>
+      </c>
+      <c r="E32">
+        <v>13.411715861342376</v>
+      </c>
+      <c r="F32">
+        <v>13.622529593946155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -10190,7 +11263,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -10247,7 +11320,7 @@
         <v>13.211458586443115</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -10276,7 +11349,7 @@
         <v>8.1598366196455441</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -10305,22 +11378,22 @@
         <v>9.1202998173334642</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J10">
         <v>11.294945961827228</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J11">
         <v>13.548024603193932</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J12">
         <v>13.651698197527327</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>5</v>
       </c>
@@ -10346,7 +11419,7 @@
         <v>13.211458586443115</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -10372,7 +11445,7 @@
         <v>16.226888788752994</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -10398,7 +11471,7 @@
         <v>15.386435363014202</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -10431,16 +11504,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17:H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>0.01</v>
       </c>
@@ -10475,7 +11548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -10513,7 +11586,7 @@
         <v>21.072825413893842</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -10551,7 +11624,7 @@
         <v>22.263780710140658</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -10589,7 +11662,7 @@
         <v>23.551726396812747</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -10627,7 +11700,7 @@
         <v>26.469164907482043</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -10665,7 +11738,7 @@
         <v>29.025729379003991</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -10703,7 +11776,7 @@
         <v>29.040509532845437</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -10741,7 +11814,7 @@
         <v>27.105726655696412</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>0.01</v>
       </c>
@@ -10776,7 +11849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -10814,7 +11887,7 @@
         <v>21.328406010123022</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -10852,7 +11925,7 @@
         <v>22.196456061236766</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -10890,7 +11963,7 @@
         <v>23.248637391585486</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -10928,7 +12001,7 @@
         <v>25.75457619871511</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -10966,7 +12039,7 @@
         <v>27.901495792129232</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -11004,7 +12077,7 @@
         <v>27.752870264996819</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -11049,16 +12122,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A9:K32"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B31" sqref="B31:H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>0</v>
       </c>
@@ -11090,7 +12163,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -11125,7 +12198,7 @@
         <v>13.411668253936959</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -11160,7 +12233,7 @@
         <v>17.207813913265614</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -11195,7 +12268,7 @@
         <v>20.227610179204213</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -11230,7 +12303,7 @@
         <v>28.116256071239494</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -11265,7 +12338,7 @@
         <v>37.598137919268638</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -11300,7 +12373,7 @@
         <v>44.412835007987745</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -11335,7 +12408,7 @@
         <v>48.321323684747902</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>0</v>
       </c>
@@ -11367,7 +12440,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -11402,7 +12475,7 @@
         <v>13.541034082739273</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -11437,7 +12510,7 @@
         <v>17.386039218294066</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -11472,7 +12545,7 @@
         <v>20.465741334183168</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -11507,7 +12580,7 @@
         <v>28.416836096295196</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -11542,7 +12615,7 @@
         <v>37.897158526439966</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -11577,7 +12650,7 @@
         <v>44.693035526972693</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -11612,7 +12685,7 @@
         <v>48.597286005011881</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>2</v>
       </c>
@@ -11635,7 +12708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -11661,7 +12734,7 @@
         <v>29.129018426755728</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -11694,19 +12767,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:R16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -11729,7 +12802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -11786,7 +12859,7 @@
         <v>24.146455596335574</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -11815,7 +12888,7 @@
         <v>14.088512232881078</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -11844,22 +12917,22 @@
         <v>16.130797905722275</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J10">
         <v>20.460430290873369</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J11">
         <v>24.569626861512724</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J12">
         <v>25.44769556737808</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>7</v>
       </c>
@@ -11885,7 +12958,7 @@
         <v>24.146455596335574</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -11911,7 +12984,7 @@
         <v>26.179699328353855</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -11937,7 +13010,7 @@
         <v>24.146455596335574</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -11970,16 +13043,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -11999,7 +13084,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -12016,7 +13101,7 @@
         <v>1.3873941358866704</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -12033,7 +13118,7 @@
         <v>1.3880950483026229</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -12048,320 +13133,6 @@
       </c>
       <c r="E13">
         <v>1.0041024733169852</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A10:L20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:L20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="10" spans="1:12">
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>15</v>
-      </c>
-      <c r="E10">
-        <v>30</v>
-      </c>
-      <c r="F10">
-        <v>60</v>
-      </c>
-      <c r="G10">
-        <v>90</v>
-      </c>
-      <c r="H10">
-        <v>120</v>
-      </c>
-      <c r="I10">
-        <v>150</v>
-      </c>
-      <c r="J10">
-        <v>180</v>
-      </c>
-      <c r="K10">
-        <v>210</v>
-      </c>
-      <c r="L10">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>15.234369511533927</v>
-      </c>
-      <c r="C11">
-        <v>15.532929785472744</v>
-      </c>
-      <c r="D11">
-        <v>15.552945237070475</v>
-      </c>
-      <c r="E11">
-        <v>16.783378944923665</v>
-      </c>
-      <c r="F11">
-        <v>17.754152614849815</v>
-      </c>
-      <c r="G11">
-        <v>17.023502666848145</v>
-      </c>
-      <c r="H11">
-        <v>15.803604055986243</v>
-      </c>
-      <c r="I11">
-        <v>13.788158823961322</v>
-      </c>
-      <c r="J11">
-        <v>11.738942197263203</v>
-      </c>
-      <c r="K11">
-        <v>9.5945516184127175</v>
-      </c>
-      <c r="L11">
-        <v>7.3602188228462158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>7.0419584077093198</v>
-      </c>
-      <c r="C12">
-        <v>8.2510908260195386</v>
-      </c>
-      <c r="D12">
-        <v>9.3481842793063876</v>
-      </c>
-      <c r="E12">
-        <v>11.867152135050819</v>
-      </c>
-      <c r="F12">
-        <v>14.538783428114266</v>
-      </c>
-      <c r="G12">
-        <v>14.708914555135092</v>
-      </c>
-      <c r="H12">
-        <v>14.439399628971405</v>
-      </c>
-      <c r="I12">
-        <v>13.030664305422924</v>
-      </c>
-      <c r="J12">
-        <v>11.349291785074209</v>
-      </c>
-      <c r="K12">
-        <v>9.3328349108720268</v>
-      </c>
-      <c r="L12">
-        <v>7.2057965730529352</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>8.129982296899696</v>
-      </c>
-      <c r="C13">
-        <v>9.2212829091240778</v>
-      </c>
-      <c r="D13">
-        <v>10.347425962647833</v>
-      </c>
-      <c r="E13">
-        <v>13.113495190523627</v>
-      </c>
-      <c r="F13">
-        <v>17.719101233530463</v>
-      </c>
-      <c r="G13">
-        <v>16.947409175863704</v>
-      </c>
-      <c r="H13">
-        <v>15.806822801289972</v>
-      </c>
-      <c r="I13">
-        <v>13.811970447736652</v>
-      </c>
-      <c r="J13">
-        <v>11.747509461044167</v>
-      </c>
-      <c r="K13">
-        <v>9.5921180425477974</v>
-      </c>
-      <c r="L13">
-        <v>7.3513050948805727</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="B17">
-        <v>5</v>
-      </c>
-      <c r="C17">
-        <v>10</v>
-      </c>
-      <c r="D17">
-        <v>15</v>
-      </c>
-      <c r="E17">
-        <v>30</v>
-      </c>
-      <c r="F17">
-        <v>60</v>
-      </c>
-      <c r="G17">
-        <v>90</v>
-      </c>
-      <c r="H17">
-        <v>120</v>
-      </c>
-      <c r="I17">
-        <v>150</v>
-      </c>
-      <c r="J17">
-        <v>180</v>
-      </c>
-      <c r="K17">
-        <v>210</v>
-      </c>
-      <c r="L17">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18">
-        <v>13.835664453606126</v>
-      </c>
-      <c r="C18">
-        <v>14.120121928595751</v>
-      </c>
-      <c r="D18">
-        <v>14.318401832482504</v>
-      </c>
-      <c r="E18">
-        <v>15.452878992481827</v>
-      </c>
-      <c r="F18">
-        <v>16.321666828423083</v>
-      </c>
-      <c r="G18">
-        <v>15.581211720863003</v>
-      </c>
-      <c r="H18">
-        <v>14.294289106752371</v>
-      </c>
-      <c r="I18">
-        <v>12.286953911083856</v>
-      </c>
-      <c r="J18">
-        <v>10.332735403544618</v>
-      </c>
-      <c r="K18">
-        <v>8.2113100487293522</v>
-      </c>
-      <c r="L18">
-        <v>6.2294138106370003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19">
-        <v>7.0680471476548234</v>
-      </c>
-      <c r="C19">
-        <v>8.1598366196455441</v>
-      </c>
-      <c r="D19">
-        <v>9.1202998173334642</v>
-      </c>
-      <c r="E19">
-        <v>11.294945961827228</v>
-      </c>
-      <c r="F19">
-        <v>13.548024603193932</v>
-      </c>
-      <c r="G19">
-        <v>13.651698197527327</v>
-      </c>
-      <c r="H19">
-        <v>13.211458586443115</v>
-      </c>
-      <c r="I19">
-        <v>11.83870036977447</v>
-      </c>
-      <c r="J19">
-        <v>10.159729060245978</v>
-      </c>
-      <c r="K19">
-        <v>8.1349540696153024</v>
-      </c>
-      <c r="L19">
-        <v>6.2204902199772132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20">
-        <v>8.3014112385196537</v>
-      </c>
-      <c r="C20">
-        <v>9.4106621161909736</v>
-      </c>
-      <c r="D20">
-        <v>10.49332642449534</v>
-      </c>
-      <c r="E20">
-        <v>12.90846514433065</v>
-      </c>
-      <c r="F20">
-        <v>16.288272310492697</v>
-      </c>
-      <c r="G20">
-        <v>15.496539875427656</v>
-      </c>
-      <c r="H20">
-        <v>14.301220097836659</v>
-      </c>
-      <c r="I20">
-        <v>12.312377723193331</v>
-      </c>
-      <c r="J20">
-        <v>10.352713878976887</v>
-      </c>
-      <c r="K20">
-        <v>8.2127327573238169</v>
-      </c>
-      <c r="L20">
-        <v>6.229033536909296</v>
       </c>
     </row>
   </sheetData>
@@ -12371,154 +13142,311 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A10:H22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A10:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="10" spans="1:8">
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>5</v>
       </c>
-      <c r="F10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" t="s">
-        <v>9</v>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>30</v>
+      </c>
+      <c r="F10">
+        <v>60</v>
+      </c>
+      <c r="G10">
+        <v>90</v>
+      </c>
+      <c r="H10">
+        <v>120</v>
+      </c>
+      <c r="I10">
+        <v>150</v>
+      </c>
+      <c r="J10">
+        <v>180</v>
+      </c>
+      <c r="K10">
+        <v>210</v>
+      </c>
+      <c r="L10">
+        <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>17.661615191313402</v>
+        <v>15.234369511533927</v>
       </c>
       <c r="C11">
-        <v>17.661615191313402</v>
+        <v>15.532929785472744</v>
       </c>
       <c r="D11">
-        <v>17.661615191313402</v>
+        <v>15.552945237070475</v>
       </c>
       <c r="E11">
-        <v>17.661615191313402</v>
+        <v>16.783378944923665</v>
       </c>
       <c r="F11">
-        <v>17.661615191313402</v>
+        <v>17.754152614849815</v>
       </c>
       <c r="G11">
-        <v>17.661615191313402</v>
+        <v>17.023502666848145</v>
       </c>
       <c r="H11">
-        <v>17.661615191313402</v>
+        <v>15.803604055986243</v>
+      </c>
+      <c r="I11">
+        <v>13.788158823961322</v>
+      </c>
+      <c r="J11">
+        <v>11.738942197263203</v>
+      </c>
+      <c r="K11">
+        <v>9.5945516184127175</v>
+      </c>
+      <c r="L11">
+        <v>7.3602188228462158</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>16.226888788752994</v>
+        <v>7.0419584077093198</v>
       </c>
       <c r="C12">
-        <v>16.226888788752994</v>
+        <v>8.2510908260195386</v>
       </c>
       <c r="D12">
-        <v>16.226888788752994</v>
+        <v>9.3481842793063876</v>
       </c>
       <c r="E12">
-        <v>16.226888788752994</v>
+        <v>11.867152135050819</v>
       </c>
       <c r="F12">
-        <v>16.226888788752994</v>
+        <v>14.538783428114266</v>
       </c>
       <c r="G12">
-        <v>16.226888788752994</v>
+        <v>14.708914555135092</v>
       </c>
       <c r="H12">
-        <v>16.226888788752994</v>
+        <v>14.439399628971405</v>
+      </c>
+      <c r="I12">
+        <v>13.030664305422924</v>
+      </c>
+      <c r="J12">
+        <v>11.349291785074209</v>
+      </c>
+      <c r="K12">
+        <v>9.3328349108720268</v>
+      </c>
+      <c r="L12">
+        <v>7.2057965730529352</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="B20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" t="s">
-        <v>24</v>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>8.129982296899696</v>
+      </c>
+      <c r="C13">
+        <v>9.2212829091240778</v>
+      </c>
+      <c r="D13">
+        <v>10.347425962647833</v>
+      </c>
+      <c r="E13">
+        <v>13.113495190523627</v>
+      </c>
+      <c r="F13">
+        <v>17.719101233530463</v>
+      </c>
+      <c r="G13">
+        <v>16.947409175863704</v>
+      </c>
+      <c r="H13">
+        <v>15.806822801289972</v>
+      </c>
+      <c r="I13">
+        <v>13.811970447736652</v>
+      </c>
+      <c r="J13">
+        <v>11.747509461044167</v>
+      </c>
+      <c r="K13">
+        <v>9.5921180425477974</v>
+      </c>
+      <c r="L13">
+        <v>7.3513050948805727</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21">
-        <v>18.013803651465423</v>
-      </c>
-      <c r="C21">
-        <v>14.923352426251732</v>
-      </c>
-      <c r="D21">
-        <v>15.495245781887057</v>
-      </c>
-      <c r="E21">
-        <v>18.882851835329564</v>
-      </c>
-      <c r="F21">
-        <v>20.992822261633204</v>
-      </c>
-      <c r="G21">
-        <v>3.2676025205325914</v>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>30</v>
+      </c>
+      <c r="F17">
+        <v>60</v>
+      </c>
+      <c r="G17">
+        <v>90</v>
+      </c>
+      <c r="H17">
+        <v>120</v>
+      </c>
+      <c r="I17">
+        <v>150</v>
+      </c>
+      <c r="J17">
+        <v>180</v>
+      </c>
+      <c r="K17">
+        <v>210</v>
+      </c>
+      <c r="L17">
+        <v>240</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22">
-        <v>16.422962543355716</v>
-      </c>
-      <c r="C22">
-        <v>13.296067947345646</v>
-      </c>
-      <c r="D22">
-        <v>14.158250321697716</v>
-      </c>
-      <c r="E22">
-        <v>17.543163808456054</v>
-      </c>
-      <c r="F22">
-        <v>19.713999322909856</v>
-      </c>
-      <c r="G22">
-        <v>2.6995637665509302</v>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>13.835664453606126</v>
+      </c>
+      <c r="C18">
+        <v>14.120121928595751</v>
+      </c>
+      <c r="D18">
+        <v>14.318401832482504</v>
+      </c>
+      <c r="E18">
+        <v>15.452878992481827</v>
+      </c>
+      <c r="F18">
+        <v>16.321666828423083</v>
+      </c>
+      <c r="G18">
+        <v>15.581211720863003</v>
+      </c>
+      <c r="H18">
+        <v>14.294289106752371</v>
+      </c>
+      <c r="I18">
+        <v>12.286953911083856</v>
+      </c>
+      <c r="J18">
+        <v>10.332735403544618</v>
+      </c>
+      <c r="K18">
+        <v>8.2113100487293522</v>
+      </c>
+      <c r="L18">
+        <v>6.2294138106370003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>7.0680471476548234</v>
+      </c>
+      <c r="C19">
+        <v>8.1598366196455441</v>
+      </c>
+      <c r="D19">
+        <v>9.1202998173334642</v>
+      </c>
+      <c r="E19">
+        <v>11.294945961827228</v>
+      </c>
+      <c r="F19">
+        <v>13.548024603193932</v>
+      </c>
+      <c r="G19">
+        <v>13.651698197527327</v>
+      </c>
+      <c r="H19">
+        <v>13.211458586443115</v>
+      </c>
+      <c r="I19">
+        <v>11.83870036977447</v>
+      </c>
+      <c r="J19">
+        <v>10.159729060245978</v>
+      </c>
+      <c r="K19">
+        <v>8.1349540696153024</v>
+      </c>
+      <c r="L19">
+        <v>6.2204902199772132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20">
+        <v>8.3014112385196537</v>
+      </c>
+      <c r="C20">
+        <v>9.4106621161909736</v>
+      </c>
+      <c r="D20">
+        <v>10.49332642449534</v>
+      </c>
+      <c r="E20">
+        <v>12.90846514433065</v>
+      </c>
+      <c r="F20">
+        <v>16.288272310492697</v>
+      </c>
+      <c r="G20">
+        <v>15.496539875427656</v>
+      </c>
+      <c r="H20">
+        <v>14.301220097836659</v>
+      </c>
+      <c r="I20">
+        <v>12.312377723193331</v>
+      </c>
+      <c r="J20">
+        <v>10.352713878976887</v>
+      </c>
+      <c r="K20">
+        <v>8.2127327573238169</v>
+      </c>
+      <c r="L20">
+        <v>6.229033536909296</v>
       </c>
     </row>
   </sheetData>
@@ -12528,327 +13456,154 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A10:F27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A10:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="10" spans="1:6">
-      <c r="B10">
-        <v>0.01</v>
-      </c>
-      <c r="C10">
-        <v>0.05</v>
-      </c>
-      <c r="D10">
-        <v>0.1</v>
-      </c>
-      <c r="E10">
-        <v>0.5</v>
-      </c>
-      <c r="F10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>17.661615191313402</v>
+      </c>
+      <c r="C11">
+        <v>17.661615191313402</v>
+      </c>
+      <c r="D11">
+        <v>17.661615191313402</v>
+      </c>
+      <c r="E11">
+        <v>17.661615191313402</v>
+      </c>
+      <c r="F11">
+        <v>17.661615191313402</v>
+      </c>
+      <c r="G11">
+        <v>17.661615191313402</v>
+      </c>
+      <c r="H11">
+        <v>17.661615191313402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>1</v>
       </c>
+      <c r="B12">
+        <v>16.226888788752994</v>
+      </c>
+      <c r="C12">
+        <v>16.226888788752994</v>
+      </c>
+      <c r="D12">
+        <v>16.226888788752994</v>
+      </c>
+      <c r="E12">
+        <v>16.226888788752994</v>
+      </c>
+      <c r="F12">
+        <v>16.226888788752994</v>
+      </c>
+      <c r="G12">
+        <v>16.226888788752994</v>
+      </c>
+      <c r="H12">
+        <v>16.226888788752994</v>
+      </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>8.3236032984890294</v>
-      </c>
-      <c r="C11">
-        <v>7.5973379739264884</v>
-      </c>
-      <c r="D11">
-        <v>7.5332946830619729</v>
-      </c>
-      <c r="E11">
-        <v>10.899633814245272</v>
-      </c>
-      <c r="F11">
-        <v>14.587232807444588</v>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>9.9556151300696794</v>
-      </c>
-      <c r="C12">
-        <v>8.995545426013285</v>
-      </c>
-      <c r="D12">
-        <v>8.9184905717329173</v>
-      </c>
-      <c r="E12">
-        <v>11.578162864010999</v>
-      </c>
-      <c r="F12">
-        <v>14.891209209605096</v>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>18.013803651465423</v>
+      </c>
+      <c r="C21">
+        <v>14.923352426251732</v>
+      </c>
+      <c r="D21">
+        <v>15.495245781887057</v>
+      </c>
+      <c r="E21">
+        <v>18.882851835329564</v>
+      </c>
+      <c r="F21">
+        <v>20.992822261633204</v>
+      </c>
+      <c r="G21">
+        <v>3.2676025205325914</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13">
-        <v>11.201302260209836</v>
-      </c>
-      <c r="C13">
-        <v>10.146093606424992</v>
-      </c>
-      <c r="D13">
-        <v>10.020714026740212</v>
-      </c>
-      <c r="E13">
-        <v>12.262431891806072</v>
-      </c>
-      <c r="F13">
-        <v>15.19158710740394</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14">
-        <v>13.843895400951469</v>
-      </c>
-      <c r="C14">
-        <v>12.254900395354714</v>
-      </c>
-      <c r="D14">
-        <v>12.096543418755477</v>
-      </c>
-      <c r="E14">
-        <v>13.666179296242722</v>
-      </c>
-      <c r="F14">
-        <v>15.844146867926476</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15">
-        <v>16.355649771959108</v>
-      </c>
-      <c r="C15">
-        <v>14.74592133095344</v>
-      </c>
-      <c r="D15">
-        <v>14.529016375065863</v>
-      </c>
-      <c r="E15">
-        <v>15.323070261126324</v>
-      </c>
-      <c r="F15">
-        <v>16.553154646437726</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16">
-        <v>17.548683253476785</v>
-      </c>
-      <c r="C16">
-        <v>16.065223724242234</v>
-      </c>
-      <c r="D16">
-        <v>15.781704422862429</v>
-      </c>
-      <c r="E16">
-        <v>16.386043664028804</v>
-      </c>
-      <c r="F16">
-        <v>17.102975647329355</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17">
-        <v>18.016588012692843</v>
-      </c>
-      <c r="C17">
-        <v>16.673689481553033</v>
-      </c>
-      <c r="D17">
-        <v>16.620333408412481</v>
-      </c>
-      <c r="E17">
-        <v>16.952565185759504</v>
-      </c>
-      <c r="F17">
-        <v>17.423688990423447</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="B20">
-        <v>0.01</v>
-      </c>
-      <c r="C20">
-        <v>0.05</v>
-      </c>
-      <c r="D20">
-        <v>0.1</v>
-      </c>
-      <c r="E20">
-        <v>0.5</v>
-      </c>
-      <c r="F20">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21">
-        <v>8.5462200174390155</v>
-      </c>
-      <c r="C21">
-        <v>7.6972582025202732</v>
-      </c>
-      <c r="D21">
-        <v>7.5854885989948828</v>
-      </c>
-      <c r="E21">
-        <v>11.121000156275358</v>
-      </c>
-      <c r="F21">
-        <v>14.522058542328288</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>3</v>
-      </c>
       <c r="B22">
-        <v>10.161421439662643</v>
+        <v>16.422962543355716</v>
       </c>
       <c r="C22">
-        <v>8.9954611195748413</v>
+        <v>13.296067947345646</v>
       </c>
       <c r="D22">
-        <v>8.8606303324586495</v>
+        <v>14.158250321697716</v>
       </c>
       <c r="E22">
-        <v>11.613005915393432</v>
+        <v>17.543163808456054</v>
       </c>
       <c r="F22">
-        <v>14.632894989366875</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23">
-        <v>11.332492505929849</v>
-      </c>
-      <c r="C23">
-        <v>10.035252322470479</v>
-      </c>
-      <c r="D23">
-        <v>9.8474795657370624</v>
-      </c>
-      <c r="E23">
-        <v>12.120028338089783</v>
-      </c>
-      <c r="F23">
-        <v>14.766660517935536</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24">
-        <v>13.770950857021177</v>
-      </c>
-      <c r="C24">
-        <v>11.82974516759726</v>
-      </c>
-      <c r="D24">
-        <v>11.572960444294585</v>
-      </c>
-      <c r="E24">
-        <v>13.101071903652649</v>
-      </c>
-      <c r="F24">
-        <v>15.072830906961691</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25">
-        <v>16.019820153600371</v>
-      </c>
-      <c r="C25">
-        <v>13.906319474463684</v>
-      </c>
-      <c r="D25">
-        <v>13.577110636641985</v>
-      </c>
-      <c r="E25">
-        <v>14.327379926741072</v>
-      </c>
-      <c r="F25">
-        <v>15.489119923864513</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26">
-        <v>17.081953426100306</v>
-      </c>
-      <c r="C26">
-        <v>15.088442054416163</v>
-      </c>
-      <c r="D26">
-        <v>14.678118114894433</v>
-      </c>
-      <c r="E26">
-        <v>15.188718908959393</v>
-      </c>
-      <c r="F26">
-        <v>15.864944596792084</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27">
-        <v>17.386694627355656</v>
-      </c>
-      <c r="C27">
-        <v>15.551928556188134</v>
-      </c>
-      <c r="D27">
-        <v>15.386435363014202</v>
-      </c>
-      <c r="E27">
-        <v>15.664810950860028</v>
-      </c>
-      <c r="F27">
-        <v>16.07444581943804</v>
+        <v>19.713999322909856</v>
+      </c>
+      <c r="G22">
+        <v>2.6995637665509302</v>
       </c>
     </row>
   </sheetData>
@@ -12858,341 +13613,331 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A10:F32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A10:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C10">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="D10">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="E10">
-        <v>0.9</v>
+        <v>0.5</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
       <c r="B11">
-        <v>17.657288347730439</v>
+        <v>8.3236032984890294</v>
       </c>
       <c r="C11">
-        <v>13.120157652008995</v>
+        <v>7.5973379739264884</v>
       </c>
       <c r="D11">
-        <v>9.6225142237086079</v>
+        <v>7.5332946830619729</v>
       </c>
       <c r="E11">
-        <v>9.0035885661840442</v>
+        <v>10.899633814245272</v>
+      </c>
+      <c r="F11">
+        <v>14.587232807444588</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
       <c r="B12">
-        <v>17.662346308820773</v>
+        <v>9.9556151300696794</v>
       </c>
       <c r="C12">
-        <v>13.43953426451384</v>
+        <v>8.995545426013285</v>
       </c>
       <c r="D12">
-        <v>10.583822930085152</v>
+        <v>8.9184905717329173</v>
       </c>
       <c r="E12">
-        <v>10.909961417435829</v>
+        <v>11.578162864010999</v>
+      </c>
+      <c r="F12">
+        <v>14.891209209605096</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13">
-        <v>17.657197809355157</v>
+        <v>11.201302260209836</v>
       </c>
       <c r="C13">
-        <v>13.795970394433667</v>
+        <v>10.146093606424992</v>
       </c>
       <c r="D13">
-        <v>11.536428464393081</v>
+        <v>10.020714026740212</v>
       </c>
       <c r="E13">
-        <v>12.542008994331432</v>
+        <v>12.262431891806072</v>
+      </c>
+      <c r="F13">
+        <v>15.19158710740394</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
       <c r="B14">
-        <v>17.646972099605591</v>
+        <v>13.843895400951469</v>
       </c>
       <c r="C14">
-        <v>14.562857057368639</v>
+        <v>12.254900395354714</v>
       </c>
       <c r="D14">
-        <v>13.498049536000737</v>
+        <v>12.096543418755477</v>
       </c>
       <c r="E14">
-        <v>15.829922055413904</v>
+        <v>13.666179296242722</v>
+      </c>
+      <c r="F14">
+        <v>15.844146867926476</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
       <c r="B15">
-        <v>17.63325156733287</v>
+        <v>16.355649771959108</v>
       </c>
       <c r="C15">
-        <v>15.704953191452235</v>
+        <v>14.74592133095344</v>
       </c>
       <c r="D15">
-        <v>16.305451283891149</v>
+        <v>14.529016375065863</v>
       </c>
       <c r="E15">
-        <v>20.430863739445549</v>
+        <v>15.323070261126324</v>
+      </c>
+      <c r="F15">
+        <v>16.553154646437726</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
       <c r="B16">
-        <v>17.657725977641714</v>
+        <v>17.548683253476785</v>
       </c>
       <c r="C16">
-        <v>16.495377425115223</v>
+        <v>16.065223724242234</v>
       </c>
       <c r="D16">
-        <v>18.136823349836796</v>
+        <v>15.781704422862429</v>
       </c>
       <c r="E16">
-        <v>23.428961738889964</v>
+        <v>16.386043664028804</v>
+      </c>
+      <c r="F16">
+        <v>17.102975647329355</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
       <c r="B17">
-        <v>17.682609312769152</v>
+        <v>18.016588012692843</v>
       </c>
       <c r="C17">
-        <v>17.08256012675534</v>
+        <v>16.673689481553033</v>
       </c>
       <c r="D17">
-        <v>19.559058155252426</v>
+        <v>16.620333408412481</v>
       </c>
       <c r="E17">
-        <v>25.907760979359228</v>
+        <v>16.952565185759504</v>
+      </c>
+      <c r="F17">
+        <v>17.423688990423447</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0.3</v>
-      </c>
-      <c r="D19">
-        <v>0.6</v>
-      </c>
-      <c r="E19">
-        <v>0.9</v>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0.01</v>
+      </c>
+      <c r="C20">
+        <v>0.05</v>
+      </c>
+      <c r="D20">
+        <v>0.1</v>
+      </c>
+      <c r="E20">
+        <v>0.5</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
-      <c r="B20">
-        <v>16.223764514665973</v>
-      </c>
-      <c r="C20">
-        <v>12.177255976698223</v>
-      </c>
-      <c r="D20">
-        <v>9.2802417533177106</v>
-      </c>
-      <c r="E20">
-        <v>9.1578273226650744</v>
+      <c r="B21">
+        <v>8.5462200174390155</v>
+      </c>
+      <c r="C21">
+        <v>7.6972582025202732</v>
+      </c>
+      <c r="D21">
+        <v>7.5854885989948828</v>
+      </c>
+      <c r="E21">
+        <v>11.121000156275358</v>
+      </c>
+      <c r="F21">
+        <v>14.522058542328288</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>3</v>
       </c>
-      <c r="B21">
-        <v>16.22898416581371</v>
-      </c>
-      <c r="C21">
-        <v>12.526612109151291</v>
-      </c>
-      <c r="D21">
-        <v>10.314772706657715</v>
-      </c>
-      <c r="E21">
-        <v>11.085133334750166</v>
+      <c r="B22">
+        <v>10.161421439662643</v>
+      </c>
+      <c r="C22">
+        <v>8.9954611195748413</v>
+      </c>
+      <c r="D22">
+        <v>8.8606303324586495</v>
+      </c>
+      <c r="E22">
+        <v>11.613005915393432</v>
+      </c>
+      <c r="F22">
+        <v>14.632894989366875</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>4</v>
       </c>
-      <c r="B22">
-        <v>16.225704091422507</v>
-      </c>
-      <c r="C22">
-        <v>12.90713092994811</v>
-      </c>
-      <c r="D22">
-        <v>11.327154801269373</v>
-      </c>
-      <c r="E22">
-        <v>12.735565116591353</v>
+      <c r="B23">
+        <v>11.332492505929849</v>
+      </c>
+      <c r="C23">
+        <v>10.035252322470479</v>
+      </c>
+      <c r="D23">
+        <v>9.8474795657370624</v>
+      </c>
+      <c r="E23">
+        <v>12.120028338089783</v>
+      </c>
+      <c r="F23">
+        <v>14.766660517935536</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>5</v>
       </c>
-      <c r="B23">
-        <v>16.218016520622719</v>
-      </c>
-      <c r="C23">
-        <v>13.756607330828263</v>
-      </c>
-      <c r="D23">
-        <v>13.427875082965713</v>
-      </c>
-      <c r="E23">
-        <v>16.0654013380679</v>
+      <c r="B24">
+        <v>13.770950857021177</v>
+      </c>
+      <c r="C24">
+        <v>11.82974516759726</v>
+      </c>
+      <c r="D24">
+        <v>11.572960444294585</v>
+      </c>
+      <c r="E24">
+        <v>13.101071903652649</v>
+      </c>
+      <c r="F24">
+        <v>15.072830906961691</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>6</v>
       </c>
-      <c r="B24">
-        <v>16.197964810604216</v>
-      </c>
-      <c r="C24">
-        <v>15.043378098682306</v>
-      </c>
-      <c r="D24">
-        <v>16.41825580960089</v>
-      </c>
-      <c r="E24">
-        <v>20.722547850142412</v>
+      <c r="B25">
+        <v>16.019820153600371</v>
+      </c>
+      <c r="C25">
+        <v>13.906319474463684</v>
+      </c>
+      <c r="D25">
+        <v>13.577110636641985</v>
+      </c>
+      <c r="E25">
+        <v>14.327379926741072</v>
+      </c>
+      <c r="F25">
+        <v>15.489119923864513</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>8</v>
       </c>
-      <c r="B25">
-        <v>16.231236398233925</v>
-      </c>
-      <c r="C25">
-        <v>15.951885295201178</v>
-      </c>
-      <c r="D25">
-        <v>18.367801657114683</v>
-      </c>
-      <c r="E25">
-        <v>23.753788113603839</v>
+      <c r="B26">
+        <v>17.081953426100306</v>
+      </c>
+      <c r="C26">
+        <v>15.088442054416163</v>
+      </c>
+      <c r="D26">
+        <v>14.678118114894433</v>
+      </c>
+      <c r="E26">
+        <v>15.188718908959393</v>
+      </c>
+      <c r="F26">
+        <v>15.864944596792084</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>9</v>
       </c>
-      <c r="B26">
-        <v>16.258342155928119</v>
-      </c>
-      <c r="C26">
-        <v>16.633018608070596</v>
-      </c>
-      <c r="D26">
-        <v>19.89852875244528</v>
-      </c>
-      <c r="E26">
-        <v>26.267675943355712</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="B30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31">
-        <v>15.777241507141854</v>
-      </c>
-      <c r="C31">
-        <v>14.522147381973834</v>
-      </c>
-      <c r="D31">
-        <v>13.934678865087319</v>
-      </c>
-      <c r="E31">
-        <v>13.820892709075265</v>
-      </c>
-      <c r="F31">
-        <v>13.829318039955798</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32">
-        <v>14.607284822815769</v>
-      </c>
-      <c r="C32">
-        <v>13.640594366429525</v>
-      </c>
-      <c r="D32">
-        <v>13.333735469496563</v>
-      </c>
-      <c r="E32">
-        <v>13.411715861342376</v>
-      </c>
-      <c r="F32">
-        <v>13.622529593946155</v>
+      <c r="B27">
+        <v>17.386694627355656</v>
+      </c>
+      <c r="C27">
+        <v>15.551928556188134</v>
+      </c>
+      <c r="D27">
+        <v>15.386435363014202</v>
+      </c>
+      <c r="E27">
+        <v>15.664810950860028</v>
+      </c>
+      <c r="F27">
+        <v>16.07444581943804</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Manuscript/charts/Final Charts - Links.xlsx
+++ b/Manuscript/charts/Final Charts - Links.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammad\git\RoadNetworks\Manuscript\charts\"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="25">
   <si>
     <t>continuous</t>
   </si>
@@ -189,7 +189,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -363,11 +362,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="193773360"/>
-        <c:axId val="193791784"/>
+        <c:axId val="306179512"/>
+        <c:axId val="306180296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="193773360"/>
+        <c:axId val="306179512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -389,14 +388,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193791784"/>
+        <c:crossAx val="306180296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -404,7 +402,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193791784"/>
+        <c:axId val="306180296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -415,7 +413,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193773360"/>
+        <c:crossAx val="306179512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -476,7 +474,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -803,11 +800,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="194977536"/>
-        <c:axId val="194977928"/>
+        <c:axId val="358663368"/>
+        <c:axId val="358659840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="194977536"/>
+        <c:axId val="358663368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -834,14 +831,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194977928"/>
+        <c:crossAx val="358659840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -849,7 +845,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194977928"/>
+        <c:axId val="358659840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -860,14 +856,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194977536"/>
+        <c:crossAx val="358663368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -939,33 +934,34 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Historic (r)'!$B$10:$H$10</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>  5 Min</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10 Min</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15 Min</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30 Min</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60 Min</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90 Min</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>120 Min</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1017,33 +1013,34 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Historic (r)'!$B$10:$H$10</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>  5 Min</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10 Min</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15 Min</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30 Min</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60 Min</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90 Min</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>120 Min</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1086,11 +1083,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="194978712"/>
-        <c:axId val="194979104"/>
+        <c:axId val="358659056"/>
+        <c:axId val="358662192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="194978712"/>
+        <c:axId val="358659056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1119,7 +1116,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194979104"/>
+        <c:crossAx val="358662192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1127,7 +1124,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194979104"/>
+        <c:axId val="358662192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.5"/>
@@ -1139,7 +1136,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194978712"/>
+        <c:crossAx val="358659056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1329,11 +1326,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="194979888"/>
-        <c:axId val="194980280"/>
+        <c:axId val="358660232"/>
+        <c:axId val="358659448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="194979888"/>
+        <c:axId val="358660232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1343,7 +1340,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194980280"/>
+        <c:crossAx val="358659448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1351,7 +1348,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194980280"/>
+        <c:axId val="358659448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1362,7 +1359,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194979888"/>
+        <c:crossAx val="358660232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1431,10 +1428,12 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="65000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -1506,17 +1505,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="pct25">
-              <a:fgClr>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="85000"/>
-                  <a:lumOff val="15000"/>
-                </a:schemeClr>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -1582,11 +1577,511 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="194981064"/>
-        <c:axId val="195194856"/>
+        <c:axId val="358661016"/>
+        <c:axId val="358657488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="194981064"/>
+        <c:axId val="358661016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Start Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+                <a:shade val="95000"/>
+                <a:satMod val="105000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="358657488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="358657488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:tint val="75000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>CRPS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+                <a:shade val="95000"/>
+                <a:satMod val="105000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="358661016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16504155730533684"/>
+          <c:y val="7.5934416425794862E-2"/>
+          <c:w val="0.41551399825021873"/>
+          <c:h val="8.8637496262334303E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:tint val="75000"/>
+          <a:shade val="95000"/>
+          <a:satMod val="105000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16531496062992126"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.83468503937007876"/>
+          <c:h val="0.70741141732283463"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Historic (r)'!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>continuous</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Historic (r)'!$B$10:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Historic (r)'!$B$11:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>17.661615191313402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.661615191313402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.661615191313402</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.661615191313402</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.661615191313402</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.661615191313402</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.661615191313402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Historic (r)'!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>discrete</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Historic (r)'!$B$10:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Historic (r)'!$B$12:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>16.226888788752994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.226888788752994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.226888788752994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.226888788752994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.226888788752994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.226888788752994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.226888788752994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="361525200"/>
+        <c:axId val="361526376"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="361525200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1603,7 +2098,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1600"/>
-                  <a:t>Start Time</a:t>
+                  <a:t>Prediction Time (minutes)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1625,7 +2120,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195194856"/>
+        <c:crossAx val="361526376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1633,9 +2128,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195194856"/>
+        <c:axId val="361526376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="25"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1673,9 +2170,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194981064"/>
+        <c:crossAx val="361525200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="5"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1684,13 +2182,18 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16504155730533684"/>
-          <c:y val="7.5934416425794862E-2"/>
-          <c:w val="0.41551399825021873"/>
-          <c:h val="8.8637496262334303E-2"/>
+          <c:x val="0.44208245844269467"/>
+          <c:y val="0.62220055826355047"/>
+          <c:w val="0.54125087489063872"/>
+          <c:h val="0.13126025913427486"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </c:spPr>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1708,13 +2211,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2231,11 +2734,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="195195640"/>
-        <c:axId val="195196032"/>
+        <c:axId val="358657096"/>
+        <c:axId val="358661408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="195195640"/>
+        <c:axId val="358657096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2279,7 +2782,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195196032"/>
+        <c:crossAx val="358661408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2287,7 +2790,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195196032"/>
+        <c:axId val="358661408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2308,7 +2811,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195195640"/>
+        <c:crossAx val="358657096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2349,17 +2852,17 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="101"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="1"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -2393,6 +2896,37 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>'Filtered (r)'!$B$20:$F$20</c:f>
@@ -2457,6 +2991,37 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>'Filtered (r)'!$B$20:$F$20</c:f>
@@ -2521,6 +3086,37 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>'Filtered (r)'!$B$20:$F$20</c:f>
@@ -2585,6 +3181,35 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>'Filtered (r)'!$B$20:$F$20</c:f>
@@ -2649,6 +3274,35 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>'Filtered (r)'!$B$20:$F$20</c:f>
@@ -2713,6 +3367,37 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>'Filtered (r)'!$B$20:$F$20</c:f>
@@ -2777,6 +3462,37 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>'Filtered (r)'!$B$20:$F$20</c:f>
@@ -2837,11 +3553,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="194674688"/>
-        <c:axId val="194675080"/>
+        <c:axId val="359689376"/>
+        <c:axId val="359686632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="194674688"/>
+        <c:axId val="359689376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2850,11 +3566,18 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800"/>
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1800"/>
@@ -2865,22 +3588,68 @@
           </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+                <a:shade val="95000"/>
+                <a:satMod val="105000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1"/>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194675080"/>
+        <c:crossAx val="359686632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2888,21 +3657,43 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194675080"/>
+        <c:axId val="359686632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:tint val="75000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800"/>
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1800"/>
@@ -2913,25 +3704,80 @@
           </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+                <a:shade val="95000"/>
+                <a:satMod val="105000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="1"/>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194674688"/>
+        <c:crossAx val="359689376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -2955,13 +3801,21 @@
             <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="1"/>
+            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -2971,6 +3825,33 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:tint val="75000"/>
+          <a:shade val="95000"/>
+          <a:satMod val="105000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
@@ -2979,7 +3860,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3454,11 +4335,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="194675864"/>
-        <c:axId val="194676256"/>
+        <c:axId val="359687808"/>
+        <c:axId val="359688984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="194675864"/>
+        <c:axId val="359687808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3497,7 +4378,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194676256"/>
+        <c:crossAx val="359688984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3505,7 +4386,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194676256"/>
+        <c:axId val="359688984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3526,7 +4407,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194675864"/>
+        <c:crossAx val="359687808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3567,17 +4448,17 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="101"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="1"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -3611,6 +4492,37 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>'Inerplolate (r)'!$B$19:$E$19</c:f>
@@ -3669,6 +4581,37 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>'Inerplolate (r)'!$B$19:$E$19</c:f>
@@ -3727,6 +4670,37 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>'Inerplolate (r)'!$B$19:$E$19</c:f>
@@ -3785,6 +4759,35 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>'Inerplolate (r)'!$B$19:$E$19</c:f>
@@ -3843,6 +4846,35 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>'Inerplolate (r)'!$B$19:$E$19</c:f>
@@ -3901,6 +4933,37 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>'Inerplolate (r)'!$B$19:$E$19</c:f>
@@ -3959,6 +5022,37 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>'Inerplolate (r)'!$B$19:$E$19</c:f>
@@ -4013,11 +5107,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="194677040"/>
-        <c:axId val="194677432"/>
+        <c:axId val="359685848"/>
+        <c:axId val="359682320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="194677040"/>
+        <c:axId val="359685848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4026,11 +5120,18 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800"/>
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1800"/>
@@ -4041,22 +5142,68 @@
           </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+                <a:shade val="95000"/>
+                <a:satMod val="105000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1"/>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194677432"/>
+        <c:crossAx val="359682320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4064,21 +5211,43 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194677432"/>
+        <c:axId val="359682320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:tint val="75000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800"/>
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1800"/>
@@ -4089,25 +5258,80 @@
           </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+                <a:shade val="95000"/>
+                <a:satMod val="105000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1"/>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194677040"/>
+        <c:crossAx val="359685848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -4115,8 +5339,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15675"/>
-          <c:y val="1.2545202682997955E-2"/>
+          <c:x val="0.15119444444444444"/>
+          <c:y val="7.9155730533683293E-3"/>
           <c:w val="0.45713888888888887"/>
           <c:h val="0.25731663750364536"/>
         </c:manualLayout>
@@ -4131,13 +5355,21 @@
             <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="1"/>
+            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -4147,6 +5379,33 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:tint val="75000"/>
+          <a:shade val="95000"/>
+          <a:satMod val="105000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
@@ -4155,7 +5414,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4202,10 +5461,12 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="65000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -4265,11 +5526,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="194678216"/>
-        <c:axId val="195862536"/>
+        <c:axId val="359685064"/>
+        <c:axId val="359685456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="194678216"/>
+        <c:axId val="359685064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4278,11 +5539,18 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800"/>
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1800"/>
@@ -4300,22 +5568,68 @@
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+                <a:shade val="95000"/>
+                <a:satMod val="105000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1"/>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195862536"/>
+        <c:crossAx val="359685456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4323,21 +5637,43 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195862536"/>
+        <c:axId val="359685456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:tint val="75000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800"/>
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1800"/>
@@ -4348,439 +5684,115 @@
           </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+                <a:shade val="95000"/>
+                <a:satMod val="105000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1"/>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194678216"/>
+        <c:crossAx val="359685064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:tint val="75000"/>
+          <a:shade val="95000"/>
+          <a:satMod val="105000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="101"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="1"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.12606496062992126"/>
-          <c:y val="5.706000291630213E-2"/>
-          <c:w val="0.85617104111985998"/>
-          <c:h val="0.69815580344123651"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Best of All (r)'!$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Best of All (r)'!$B$13:$H$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>120</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Best of All (r)'!$B$14:$H$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>16.226888788752994</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.226888788752994</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16.226888788752994</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.226888788752994</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.226888788752994</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16.226888788752994</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16.226888788752994</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Best of All (r)'!$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SH</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Best of All (r)'!$B$13:$H$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>120</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Best of All (r)'!$B$15:$H$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>7.5854885989948828</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.8606303324586495</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.8474795657370624</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.572960444294585</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.577110636641985</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14.678118114894433</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15.386435363014202</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Best of All (r)'!$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Best of All (r)'!$B$13:$H$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>120</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Best of All (r)'!$B$16:$H$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>9.288034073160004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.552890507699997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11.552416107280001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.255264233767996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.197964810568006</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16.231236398552007</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16.258342155944007</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="195863320"/>
-        <c:axId val="195863712"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="195863320"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Prediction Offset</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
-                  <a:t> (minutes)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1400"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="1"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="195863712"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="195863712"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="25"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>CRPS</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="1"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="195863320"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.13223600174978128"/>
-          <c:y val="5.4979585885097694E-2"/>
-          <c:w val="0.39831955380577427"/>
-          <c:h val="0.14467009332166814"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="1"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4821,7 +5833,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5560,11 +6571,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="193855672"/>
-        <c:axId val="155015584"/>
+        <c:axId val="358775080"/>
+        <c:axId val="358777040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="193855672"/>
+        <c:axId val="358775080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5586,14 +6597,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155015584"/>
+        <c:crossAx val="358777040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5601,7 +6611,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155015584"/>
+        <c:axId val="358777040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5612,14 +6622,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193855672"/>
+        <c:crossAx val="358775080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5635,6 +6644,676 @@
 </file>
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12606496062992126"/>
+          <c:y val="5.706000291630213E-2"/>
+          <c:w val="0.85617104111985998"/>
+          <c:h val="0.69815580344123651"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Best of All (r)'!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Best of All (r)'!$B$13:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Best of All (r)'!$B$14:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>16.226888788752994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.226888788752994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.226888788752994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.226888788752994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.226888788752994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.226888788752994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.226888788752994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Best of All (r)'!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Best of All (r)'!$B$13:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Best of All (r)'!$B$15:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7.5854885989948828</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8606303324586495</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.8474795657370624</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.572960444294585</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.577110636641985</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.678118114894433</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.386435363014202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Best of All (r)'!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Best of All (r)'!$B$13:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Best of All (r)'!$B$16:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9.288034073160004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.552890507699997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.552416107280001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.255264233767996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.197964810568006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.231236398552007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.258342155944007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="359683104"/>
+        <c:axId val="359681928"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="359683104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Prediction Offset</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t> (minutes)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+                <a:shade val="95000"/>
+                <a:satMod val="105000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="359681928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="359681928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:tint val="75000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>CRPS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+                <a:shade val="95000"/>
+                <a:satMod val="105000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="359683104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13223600174978128"/>
+          <c:y val="5.4979585885097694E-2"/>
+          <c:w val="0.39831955380577427"/>
+          <c:h val="0.14467009332166814"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:tint val="75000"/>
+          <a:shade val="95000"/>
+          <a:satMod val="105000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5916,11 +7595,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="195864496"/>
-        <c:axId val="195864888"/>
+        <c:axId val="359684280"/>
+        <c:axId val="359687024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="195864496"/>
+        <c:axId val="359684280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5954,7 +7633,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195864888"/>
+        <c:crossAx val="359687024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5962,7 +7641,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195864888"/>
+        <c:axId val="359687024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5973,7 +7652,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195864496"/>
+        <c:crossAx val="359684280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6025,7 +7704,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6764,11 +8442,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="194369624"/>
-        <c:axId val="194370008"/>
+        <c:axId val="358776256"/>
+        <c:axId val="358775864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="194369624"/>
+        <c:axId val="358776256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6790,14 +8468,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194370008"/>
+        <c:crossAx val="358775864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6805,7 +8482,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194370008"/>
+        <c:axId val="358775864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6816,14 +8493,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194369624"/>
+        <c:crossAx val="358776256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7564,11 +9240,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="154802688"/>
-        <c:axId val="154803080"/>
+        <c:axId val="358777824"/>
+        <c:axId val="358780568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="154802688"/>
+        <c:axId val="358777824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7596,7 +9272,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154803080"/>
+        <c:crossAx val="358780568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7604,7 +9280,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154803080"/>
+        <c:axId val="358780568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7615,7 +9291,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154802688"/>
+        <c:crossAx val="358777824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8362,11 +10038,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="194236312"/>
-        <c:axId val="194236704"/>
+        <c:axId val="358776648"/>
+        <c:axId val="358779392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="194236312"/>
+        <c:axId val="358776648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8394,7 +10070,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194236704"/>
+        <c:crossAx val="358779392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8402,7 +10078,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194236704"/>
+        <c:axId val="358779392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8413,7 +10089,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194236312"/>
+        <c:crossAx val="358776648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8469,7 +10145,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8721,11 +10396,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="194237488"/>
-        <c:axId val="194237880"/>
+        <c:axId val="358774688"/>
+        <c:axId val="358779000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="194237488"/>
+        <c:axId val="358774688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8747,14 +10422,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194237880"/>
+        <c:crossAx val="358779000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8762,7 +10436,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194237880"/>
+        <c:axId val="358779000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8773,14 +10447,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194237488"/>
+        <c:crossAx val="358774688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8830,7 +10503,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9082,11 +10754,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="194238664"/>
-        <c:axId val="194239056"/>
+        <c:axId val="358774296"/>
+        <c:axId val="358778608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="194238664"/>
+        <c:axId val="358774296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9108,14 +10780,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194239056"/>
+        <c:crossAx val="358778608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9123,7 +10794,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194239056"/>
+        <c:axId val="358778608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9134,14 +10805,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194238664"/>
+        <c:crossAx val="358774296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9375,11 +11045,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="154803864"/>
-        <c:axId val="154802296"/>
+        <c:axId val="358780176"/>
+        <c:axId val="358773120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="154803864"/>
+        <c:axId val="358780176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9389,7 +11059,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154802296"/>
+        <c:crossAx val="358773120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9397,7 +11067,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154802296"/>
+        <c:axId val="358773120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9408,14 +11078,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154803864"/>
+        <c:crossAx val="358780176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9460,7 +11129,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9787,11 +11455,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="154801512"/>
-        <c:axId val="154801120"/>
+        <c:axId val="358658664"/>
+        <c:axId val="358658272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="154801512"/>
+        <c:axId val="358658664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9813,14 +11481,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154801120"/>
+        <c:crossAx val="358658272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9828,7 +11495,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154801120"/>
+        <c:axId val="358658272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9839,14 +11506,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154801512"/>
+        <c:crossAx val="358658664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9859,6 +11525,2406 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="102">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:lineWidthScale>3</cs:lineWidthScale>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="95000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="5000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="101">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:lineWidthScale>3</cs:lineWidthScale>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="85000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="25000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="101">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:lineWidthScale>3</cs:lineWidthScale>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="85000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="25000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="102">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:lineWidthScale>3</cs:lineWidthScale>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="95000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="5000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="101">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:lineWidthScale>3</cs:lineWidthScale>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="85000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="25000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10290,16 +14356,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10343,6 +14409,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10514,7 +14612,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007-2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -10891,7 +14989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="J16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
@@ -11232,7 +15330,7 @@
   <dimension ref="A6:R16"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13459,33 +17557,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="B10">
         <v>5</v>
       </c>
-      <c r="F10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" t="s">
-        <v>9</v>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>30</v>
+      </c>
+      <c r="F10">
+        <v>60</v>
+      </c>
+      <c r="G10">
+        <v>90</v>
+      </c>
+      <c r="H10">
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -13616,7 +17714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="E10" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
